--- a/biology/Botanique/Begonia_imperialis/Begonia_imperialis.xlsx
+++ b/biology/Botanique/Begonia_imperialis/Begonia_imperialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia imperialis est une espèce de plantes de la famille des Begoniaceae. Ce bégonia rhizomateux est originaire du Mexique. L'espèce fait partie de la section Weilbachia ; elle a été décrite en 1861 par le botaniste français Charles Lemaire (1800-1871). L'épithète spécifique, imperialis, signifie « impérial ».
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles poilues sont vert foncé et tachées d'argent. Les fleurs sont blanches et apparaissent en hiver. C'est une plante herbacée géophyte rhizomateuse, ou hémicryptophyte.
 Il existe plusieurs variétés et cultivars.
@@ -545,9 +559,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (9 novembre 2016)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 novembre 2016) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia imperialis var. brunnea Lem.
 variété Begonia imperialis var. imperialis
 variété Begonia imperialis var. maculata Lem.
